--- a/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.86</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.32</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.32</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.32</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1562</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝消费升级混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>001488</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1186,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1224,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,91 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005281</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中科沃土转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -549,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -600,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001088</t>
+          <t>519007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝国策导向混合</t>
+          <t>海富通强化回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.93</t>
+          <t>39.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1574</t>
+          <t>0.0502</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -638,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004790</t>
+          <t>001488</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强A</t>
+          <t>万家瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>22.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0470</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -676,36 +698,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004791</t>
+          <t>000591</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强C</t>
+          <t>中银健康生活混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>75.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001489</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -780,26 +840,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>70.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1556</t>
+          <t>0.1562</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +878,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>70.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0841</t>
+          <t>0.0865</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -856,26 +916,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>87.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -950,26 +1010,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>70.88</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1562</t>
+          <t>0.1556</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -988,26 +1048,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>70.88</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0865</t>
+          <t>0.0841</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1026,26 +1086,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.07</t>
+          <t>87.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1080,7 +1140,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1110,36 +1170,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519007</t>
+          <t>001088</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>海富通强化回报混合</t>
+          <t>华宝国策导向混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39.89</t>
+          <t>86.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0502</t>
+          <t>0.1574</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1148,36 +1208,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001488</t>
+          <t>004790</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家瑞丰灵活配置混合A</t>
+          <t>富荣中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.20</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0470</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1186,74 +1246,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000591</t>
+          <t>004791</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银健康生活混合</t>
+          <t>富荣中证500指数增强C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>75.10</t>
+          <t>94.32</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001489</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>万家瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>22.20</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1267,112 +1289,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
+          <t>005281</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中科沃土转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -566,6 +583,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩ESG量化混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -766,176 +953,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010617</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴业消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1562</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010618</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0865</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝消费升级混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1010,26 +1027,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>70.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1556</t>
+          <t>0.1562</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1048,26 +1065,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>70.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0841</t>
+          <t>0.0865</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1086,26 +1103,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>87.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1170,32 +1187,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001088</t>
+          <t>010617</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝国策导向混合</t>
+          <t>兴业消费精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.93</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1574</t>
+          <t>0.1556</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1208,32 +1225,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004790</t>
+          <t>010618</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强A</t>
+          <t>兴业消费精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0841</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1246,36 +1263,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004791</t>
+          <t>007308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强C</t>
+          <t>华宝消费升级混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>87.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1284,6 +1301,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
+++ b/数据整理/stocks/A股/深证主板/002946-新乳业.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010715</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010716</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管消费升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -953,176 +1102,6 @@
       </c>
       <c r="H5" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010617</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>兴业消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>70.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1562</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010618</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>兴业消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>70.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0865</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝消费升级混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.07</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1197,26 +1176,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>70.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1556</t>
+          <t>0.1562</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1235,26 +1214,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>70.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0841</t>
+          <t>0.0865</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1273,26 +1252,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>87.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0154</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1357,32 +1336,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001088</t>
+          <t>010617</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝国策导向混合</t>
+          <t>兴业消费精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.93</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1574</t>
+          <t>0.1556</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1395,32 +1374,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004790</t>
+          <t>010618</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强A</t>
+          <t>兴业消费精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>90.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0841</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1433,36 +1412,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004791</t>
+          <t>007308</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富荣中证500指数增强C</t>
+          <t>华宝消费升级混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>87.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1471,6 +1450,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
